--- a/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828D8EEC-2B04-4352-B3E5-EDEA3DC767EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BD5E2F-D827-4F10-8735-FDA75E090D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{45BB8928-272B-46F9-AA99-9DBB3AFB3DB0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C84CCF22-BC35-401B-A38D-4DCC206B2A81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,75 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
@@ -97,15 +151,9 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,16%</t>
   </si>
   <si>
@@ -124,31 +172,19 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -184,42 +220,6 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -265,6 +265,42 @@
     <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -277,9 +313,6 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
@@ -292,19 +325,22 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>98,32%</t>
@@ -325,42 +361,6 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>99,57%</t>
   </si>
   <si>
@@ -400,6 +400,36 @@
     <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>98,04%</t>
   </si>
   <si>
@@ -424,22 +454,34 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -458,48 +500,6 @@
   </si>
   <si>
     <t>0,37%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
   </si>
   <si>
     <t>99,07%</t>
@@ -909,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8651E0-9CFD-40B1-A4F5-658E0277A536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA13E3E7-EFA3-4243-BE7C-3D7731664398}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1027,10 +1027,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>210765</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1042,85 +1042,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194529</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>631</v>
-      </c>
-      <c r="N4" s="7">
-        <v>405294</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1377</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>634</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2011</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1129,54 +1129,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1188,13 +1188,13 @@
         <v>127633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1203,13 +1203,13 @@
         <v>116002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>367</v>
@@ -1218,19 +1218,19 @@
         <v>243635</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,13 +1290,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1305,13 +1305,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1320,117 +1320,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>207129</v>
+        <v>210765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I10" s="7">
-        <v>209315</v>
+        <v>194529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="N10" s="7">
-        <v>416444</v>
+        <v>405294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1377</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>695</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>634</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2011</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>695</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,108 +1439,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>232</v>
+      </c>
+      <c r="D13" s="7">
+        <v>149657</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>228</v>
+      </c>
+      <c r="I13" s="7">
+        <v>137369</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
-        <v>25444</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>287026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1549,43 +1549,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,150 +1594,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137369</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>287026</v>
+        <v>416444</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>448</v>
+        <v>695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>59</v>
@@ -1749,49 +1749,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>679940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2099</v>
@@ -1850,7 +1850,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1874,10 +1874,10 @@
         <v>1081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>70</v>
@@ -1910,13 +1910,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1925,13 +1925,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1940,13 +1940,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D94B00-87A3-4EAF-BA97-D6FE2F6691D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A07FC67-02A4-4F84-ADC2-0956B4195BC1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,46 +2085,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>204095</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>636</v>
-      </c>
-      <c r="N4" s="7">
-        <v>426073</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2133,7 +2133,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2142,43 +2142,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1303</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,54 +2187,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2246,13 @@
         <v>127643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -2261,13 +2261,13 @@
         <v>114018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>340</v>
@@ -2276,19 +2276,19 @@
         <v>241661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>84</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2348,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2363,13 +2363,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2378,117 +2378,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>206463</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>315</v>
+      </c>
+      <c r="I10" s="7">
+        <v>204095</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>275</v>
-      </c>
-      <c r="I10" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="N10" s="7">
-        <v>416763</v>
+        <v>426073</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1303</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>619</v>
+        <v>1303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,108 +2497,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>98</v>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>99</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>100</v>
@@ -2652,120 +2652,120 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>206463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>555</v>
+      </c>
+      <c r="N16" s="7">
+        <v>416763</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="7">
-        <v>496</v>
-      </c>
-      <c r="N16" s="7">
-        <v>320824</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>104</v>
@@ -2777,25 +2777,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>619</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>106</v>
@@ -2807,49 +2807,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2872,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>1016</v>
@@ -2887,7 +2887,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2081</v>
@@ -2908,7 +2908,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>113</v>
@@ -2935,7 +2935,7 @@
         <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>115</v>
@@ -2968,13 +2968,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2983,13 +2983,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2998,13 +2998,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9899CC47-5B6E-43DD-83E2-B35521EBE3A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61EB75-F273-4606-BAE8-D0ACDB662D47}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3143,10 +3143,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>222907</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3158,31 +3158,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>664</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>430154</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3191,22 +3191,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3215,28 +3215,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,54 +3245,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3304,13 +3304,13 @@
         <v>122502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -3322,10 +3322,10 @@
         <v>63</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>327</v>
@@ -3334,19 +3334,19 @@
         <v>233077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3355,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3373,10 +3373,10 @@
         <v>70</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3385,13 +3385,13 @@
         <v>605</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3406,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3421,13 +3421,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3436,117 +3436,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>222907</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>205895</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="N10" s="7">
-        <v>411631</v>
+        <v>430154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1525</v>
+        <v>1452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,153 +3555,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>165422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>258</v>
+      </c>
+      <c r="I13" s="7">
+        <v>155542</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>504</v>
+      </c>
+      <c r="N13" s="7">
+        <v>320964</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,153 +3710,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>165422</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="I16" s="7">
-        <v>155542</v>
+        <v>205895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="N16" s="7">
-        <v>320964</v>
+        <v>411631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1251</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>455</v>
+        <v>1525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1706</v>
+        <v>1525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,49 +3865,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3939,7 @@
         <v>701786</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>154</v>
@@ -3957,16 +3957,16 @@
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -3990,7 +3990,7 @@
         <v>2585</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>159</v>
@@ -4008,10 +4008,10 @@
         <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4026,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4041,13 +4041,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4056,13 +4056,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BD5E2F-D827-4F10-8735-FDA75E090D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829C7DC2-7824-4EA5-8E54-F8461AADC7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C84CCF22-BC35-401B-A38D-4DCC206B2A81}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72D37D91-2801-4166-88EC-A2107BB48484}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,27 +106,18 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
@@ -118,82 +127,94 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,7%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>98,08%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -205,19 +226,22 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -229,295 +253,292 @@
     <t>99,91%</t>
   </si>
   <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
   </si>
 </sst>
 </file>
@@ -528,7 +549,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,39 +645,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -708,7 +729,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -819,13 +840,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -834,6 +848,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -898,19 +919,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA13E3E7-EFA3-4243-BE7C-3D7731664398}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF491D0-0C0D-4F9C-98B9-A288201276E1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1027,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1042,34 +1083,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1078,10 +1119,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1093,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1135,13 +1176,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1150,13 +1191,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1165,13 +1206,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,49 +1223,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127633</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>243635</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1233,49 +1274,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127633</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>243635</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,13 +1331,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1305,13 +1346,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1320,13 +1361,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,40 +1378,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>210765</v>
+        <v>1377</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194529</v>
+        <v>634</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>405294</v>
+        <v>2011</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>34</v>
@@ -1388,40 +1429,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>1377</v>
+        <v>210765</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>634</v>
+        <v>194529</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>631</v>
       </c>
       <c r="N11" s="7">
-        <v>2011</v>
+        <v>405294</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>41</v>
@@ -1445,13 +1486,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1460,13 +1501,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1475,13 +1516,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,49 +1533,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>137369</v>
+        <v>448</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>287026</v>
+        <v>448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,49 +1584,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>448</v>
+        <v>137369</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>448</v>
+        <v>287026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1641,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1615,13 +1656,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1630,66 +1671,66 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207129</v>
+        <v>695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416444</v>
+        <v>695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,49 +1739,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>695</v>
+        <v>207129</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>695</v>
+        <v>416444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1796,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1770,13 +1811,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1785,13 +1826,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,49 +1843,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1083</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>720628</v>
+        <v>2072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>679940</v>
+        <v>1081</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
-        <v>2099</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>1400568</v>
+        <v>3153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,40 +1894,40 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="7">
-        <v>2072</v>
+        <v>720628</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1081</v>
+        <v>679940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>2099</v>
       </c>
       <c r="N20" s="7">
-        <v>3153</v>
+        <v>1400568</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>71</v>
@@ -1910,13 +1951,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1925,13 +1966,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1940,13 +1981,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1967,8 +2013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A07FC67-02A4-4F84-ADC2-0956B4195BC1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82C31B-5D30-48E4-9BB2-7AE33220A4FD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1984,7 +2030,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2085,49 +2131,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,49 +2182,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2239,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2208,13 +2254,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2223,13 +2269,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2286,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127643</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>241661</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,49 +2337,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127643</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>241661</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2394,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2363,13 +2409,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2378,13 +2424,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,49 +2441,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>204095</v>
+        <v>1303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
-        <v>636</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>426073</v>
+        <v>1303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,49 +2492,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>1303</v>
+        <v>204095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="N11" s="7">
-        <v>1303</v>
+        <v>426073</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,16 +2546,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2518,13 +2564,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2533,13 +2579,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2596,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>320824</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,49 +2647,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>320824</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2704,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2673,13 +2719,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2688,66 +2734,66 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>206463</v>
+        <v>619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416763</v>
+        <v>619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,49 +2802,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7">
-        <v>619</v>
+        <v>206463</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>555</v>
       </c>
       <c r="N17" s="7">
-        <v>619</v>
+        <v>416763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2859,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2828,13 +2874,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2843,13 +2889,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,49 +2906,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1065</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>747523</v>
+        <v>619</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>705625</v>
+        <v>1303</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
-        <v>2081</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1453148</v>
+        <v>1922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2957,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>1065</v>
       </c>
       <c r="D20" s="7">
-        <v>619</v>
+        <v>747523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1303</v>
+        <v>705625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2081</v>
       </c>
       <c r="N20" s="7">
-        <v>1922</v>
+        <v>1453148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +3014,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2983,13 +3029,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2998,13 +3044,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3025,8 +3076,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61EB75-F273-4606-BAE8-D0ACDB662D47}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8918E4-FA85-49B7-9A39-8C1DAF3CE0F5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3042,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3143,49 +3194,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,49 +3245,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3302,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3266,13 +3317,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3281,13 +3332,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,49 +3349,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>110575</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>233077</v>
+        <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,49 +3400,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>110575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="N8" s="7">
-        <v>605</v>
+        <v>233077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3457,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3421,13 +3472,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3436,13 +3487,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,49 +3504,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>222907</v>
+        <v>1452</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>664</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>430154</v>
+        <v>1452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,49 +3555,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>1452</v>
+        <v>222907</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>664</v>
       </c>
       <c r="N11" s="7">
-        <v>1452</v>
+        <v>430154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3612,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3576,13 +3627,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3591,13 +3642,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,49 +3659,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>165422</v>
+        <v>1251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>155542</v>
+        <v>455</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>320964</v>
+        <v>1706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,49 +3710,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>1251</v>
+        <v>165422</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I14" s="7">
-        <v>455</v>
+        <v>155542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>504</v>
       </c>
       <c r="N14" s="7">
-        <v>1706</v>
+        <v>320964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3767,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3731,13 +3782,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3746,66 +3797,66 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>205895</v>
+        <v>1525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
-        <v>569</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>411631</v>
+        <v>1525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,49 +3865,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="I17" s="7">
-        <v>1525</v>
+        <v>205895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>569</v>
       </c>
       <c r="N17" s="7">
-        <v>1525</v>
+        <v>411631</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3922,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3886,13 +3937,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3901,13 +3952,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +3969,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1061</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>742142</v>
+        <v>2702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H19" s="7">
-        <v>1057</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>701786</v>
+        <v>2585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
-        <v>2118</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>1443928</v>
+        <v>5287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +4020,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>1061</v>
       </c>
       <c r="D20" s="7">
-        <v>2702</v>
+        <v>742142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1057</v>
+      </c>
+      <c r="I20" s="7">
+        <v>701786</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2585</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>2118</v>
       </c>
       <c r="N20" s="7">
-        <v>5287</v>
+        <v>1443928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4077,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4041,13 +4092,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4056,13 +4107,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829C7DC2-7824-4EA5-8E54-F8461AADC7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5801AC68-6ACE-49DB-A16E-2F656D63FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72D37D91-2801-4166-88EC-A2107BB48484}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C97AA2B8-1415-40C6-BCAD-CAEB0281472F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="171">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -127,418 +127,430 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
 </sst>
 </file>
@@ -950,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF491D0-0C0D-4F9C-98B9-A288201276E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705AE6B5-3072-459C-B92B-E1338129B1CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1870,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1879,10 +1891,10 @@
         <v>3153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>67</v>
@@ -1918,7 +1930,7 @@
         <v>43</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1930,13 +1942,13 @@
         <v>1400568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82C31B-5D30-48E4-9BB2-7AE33220A4FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F078E0-28DA-4076-9AB0-3318E4DE9C3B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2495,7 +2507,7 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2546,7 +2558,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2912,13 +2924,13 @@
         <v>619</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2963,10 +2975,10 @@
         <v>747523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3076,7 +3088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8918E4-FA85-49B7-9A39-8C1DAF3CE0F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B99232-68A8-41DF-9C86-4BE71B277861}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,13 +3382,13 @@
         <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3385,13 +3397,13 @@
         <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3421,10 +3433,10 @@
         <v>110575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3436,10 +3448,10 @@
         <v>233077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3516,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3531,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3540,13 +3552,13 @@
         <v>1452</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3576,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3686,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3695,13 +3707,13 @@
         <v>1706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3731,7 @@
         <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3734,7 +3746,7 @@
         <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3746,13 +3758,13 @@
         <v>320964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3835,13 +3847,13 @@
         <v>1525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3850,13 +3862,13 @@
         <v>1525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3886,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3886,10 +3898,10 @@
         <v>205895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3901,10 +3913,10 @@
         <v>411631</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3975,13 +3987,13 @@
         <v>2702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3990,13 +4002,13 @@
         <v>2585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4005,13 +4017,13 @@
         <v>5287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4038,13 @@
         <v>742142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>1057</v>
@@ -4041,13 +4053,13 @@
         <v>701786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>2118</v>
@@ -4056,13 +4068,13 @@
         <v>1443928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5801AC68-6ACE-49DB-A16E-2F656D63FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15DF4B8-D946-4E97-92EC-468A0473AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C97AA2B8-1415-40C6-BCAD-CAEB0281472F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{65448993-4DBB-40EC-9C5C-169373965F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="144">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,52 +94,31 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -148,82 +127,79 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>98,7%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -235,13 +211,16 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -253,13 +232,13 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,5%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -268,114 +247,93 @@
     <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>99,14%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>0,13%</t>
   </si>
   <si>
@@ -385,12 +343,15 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
     <t>99,87%</t>
   </si>
   <si>
@@ -403,70 +364,52 @@
     <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
+    <t>98,04%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -475,82 +418,58 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,52%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
   </si>
 </sst>
 </file>
@@ -962,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705AE6B5-3072-459C-B92B-E1338129B1CC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E0735-5DBC-4E16-89C3-CC2C9C7381D3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1131,10 +1050,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1146,10 +1065,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1161,10 +1080,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1182,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1197,10 +1116,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1212,10 +1131,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1235,49 +1154,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,49 +1205,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>127633</v>
+        <v>194529</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>210765</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>367</v>
+        <v>631</v>
       </c>
       <c r="N8" s="7">
-        <v>243635</v>
+        <v>405294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1352,10 +1271,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1367,10 +1286,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1384,55 +1303,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1377</v>
+        <v>448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>634</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>448</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2011</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,49 +1360,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>210765</v>
+        <v>137369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>194529</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>460</v>
+      </c>
+      <c r="N11" s="7">
+        <v>287026</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M11" s="7">
-        <v>631</v>
-      </c>
-      <c r="N11" s="7">
-        <v>405294</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1507,10 +1426,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1522,10 +1441,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1539,7 +1458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1557,31 +1476,31 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>448</v>
+        <v>695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>448</v>
+        <v>695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
@@ -1596,10 +1515,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1611,31 +1530,31 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>137369</v>
+        <v>207129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>287026</v>
+        <v>416444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1647,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1662,10 +1581,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1677,10 +1596,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1694,19 +1613,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>695</v>
+        <v>1081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -1715,34 +1634,34 @@
         <v>53</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>695</v>
+        <v>3153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,49 +1670,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207129</v>
+        <v>679940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>720628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2099</v>
       </c>
       <c r="N17" s="7">
-        <v>416444</v>
+        <v>1400568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1817,10 +1736,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1832,10 +1751,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1848,171 +1767,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2072</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1081</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3153</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>720628</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679940</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1400568</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2025,8 +1788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F078E0-28DA-4076-9AB0-3318E4DE9C3B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08846E91-CAFF-4B89-8C32-A2B9EED9C145}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2042,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2155,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2170,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2185,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,46 +1957,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2245,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2260,10 +2023,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2275,10 +2038,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2298,19 +2061,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2325,22 +2088,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,49 +2112,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="D8" s="7">
-        <v>127643</v>
+        <v>204095</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>340</v>
+        <v>636</v>
       </c>
       <c r="N8" s="7">
-        <v>241661</v>
+        <v>426073</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,10 +2163,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2415,10 +2178,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2430,10 +2193,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2447,7 +2210,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2465,37 +2228,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1303</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,49 +2267,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>204095</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>496</v>
+      </c>
+      <c r="N11" s="7">
+        <v>320824</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="7">
-        <v>636</v>
-      </c>
-      <c r="N11" s="7">
-        <v>426073</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,10 +2318,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2570,10 +2333,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2585,10 +2348,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2602,7 +2365,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2620,37 +2383,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,49 +2422,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>206463</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="N14" s="7">
-        <v>320824</v>
+        <v>416763</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2725,10 +2488,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2740,10 +2503,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2757,55 +2520,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>619</v>
+        <v>1303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>619</v>
+        <v>1922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,49 +2577,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>280</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>206463</v>
+        <v>705625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>275</v>
+        <v>1065</v>
       </c>
       <c r="I17" s="7">
-        <v>210300</v>
+        <v>747523</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="7">
-        <v>555</v>
+        <v>2081</v>
       </c>
       <c r="N17" s="7">
-        <v>416763</v>
+        <v>1453148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2880,10 +2643,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2895,10 +2658,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2911,171 +2674,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>619</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1922</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D20" s="7">
-        <v>747523</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>705625</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2081</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1453148</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3088,8 +2695,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B99232-68A8-41DF-9C86-4BE71B277861}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0640F98-D707-4D72-BB1F-DED5CE05E37D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3105,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3206,19 +2813,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3233,22 +2840,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,49 +2864,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133102</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281178</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,10 +2915,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3323,10 +2930,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3338,10 +2945,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3373,37 +2980,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>1452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>605</v>
+        <v>1452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,46 +3019,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="I8" s="7">
-        <v>110575</v>
+        <v>222907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="N8" s="7">
-        <v>233077</v>
+        <v>430154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3463,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3478,10 +3085,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3493,10 +3100,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3510,55 +3117,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1452</v>
+        <v>455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1452</v>
+        <v>1706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,49 +3174,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>222907</v>
+        <v>155542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>165422</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>664</v>
+        <v>504</v>
       </c>
       <c r="N11" s="7">
-        <v>430154</v>
+        <v>320964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3633,10 +3240,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3648,10 +3255,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3665,7 +3272,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3674,46 +3281,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1251</v>
+        <v>1525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1525</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1706</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +3329,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>165422</v>
+        <v>205895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155542</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>569</v>
+      </c>
+      <c r="N14" s="7">
+        <v>411631</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M14" s="7">
-        <v>504</v>
-      </c>
-      <c r="N14" s="7">
-        <v>320964</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3788,10 +3395,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3803,10 +3410,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3820,55 +3427,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1525</v>
+        <v>2702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>1525</v>
+        <v>5287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,49 +3484,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1057</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>701786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
-        <v>279</v>
+        <v>1061</v>
       </c>
       <c r="I17" s="7">
-        <v>205895</v>
+        <v>742142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
-        <v>569</v>
+        <v>2118</v>
       </c>
       <c r="N17" s="7">
-        <v>411631</v>
+        <v>1443928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +3535,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3943,10 +3550,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3958,10 +3565,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3974,171 +3581,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2702</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2585</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5287</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742142</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I20" s="7">
-        <v>701786</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1443928</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
